--- a/Banc de test/Plan d'expérience.xlsx
+++ b/Banc de test/Plan d'expérience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC90917F-F6D0-4134-AE83-9A74A791C270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8A245-F9C1-4E4D-A8BC-D2F450D6B455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri " sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>A</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>Créée à l'aide de la matrice aléatoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramètres pas pris en compte </t>
+  </si>
+  <si>
+    <t>* Le nombre de couche de graphite mis =&gt; pas mesurable</t>
+  </si>
+  <si>
+    <t>*?</t>
   </si>
 </sst>
 </file>
@@ -665,7 +674,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -741,11 +749,14 @@
     <xf numFmtId="169" fontId="4" fillId="17" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4211,13 +4222,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F207AC7-7798-468F-8B32-D39C6BC5D772}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -4227,1128 +4238,1140 @@
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
       <c r="D1" s="54"/>
-      <c r="E1" s="2"/>
-      <c r="N1" s="6">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5">
         <f ca="1">0.5+RAND()*(1-0.5)</f>
-        <v>0.75285582915267901</v>
-      </c>
-      <c r="O1" s="6">
+        <v>0.59606160581705603</v>
+      </c>
+      <c r="O1" s="5">
         <f ca="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>1.2650874024366801</v>
-      </c>
-      <c r="P1" s="6">
+        <v>0.63980509774122074</v>
+      </c>
+      <c r="P1" s="5">
         <f ca="1">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.58012143268517724</v>
-      </c>
-      <c r="Q1" s="3">
+        <v>0.32603879600098479</v>
+      </c>
+      <c r="Q1" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="R1" s="6">
+        <v>4</v>
+      </c>
+      <c r="R1" s="5">
         <f ca="1">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.3717453378989799</v>
+        <v>0.26620271133772644</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N2" s="6">
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="5">
         <f t="shared" ref="N2:N10" ca="1" si="0">0.5+RAND()*(1-0.5)</f>
-        <v>0.57859926826946173</v>
-      </c>
-      <c r="O2" s="6">
+        <v>0.56493148934440063</v>
+      </c>
+      <c r="O2" s="5">
         <f t="shared" ref="O2:O10" ca="1" si="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>1.0688269562713639</v>
-      </c>
-      <c r="P2" s="6">
+        <v>1.4782715428040758</v>
+      </c>
+      <c r="P2" s="5">
         <f t="shared" ref="P2:P10" ca="1" si="2">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.43315757877057826</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>0.34359666221024232</v>
+      </c>
+      <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q10" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="R2" s="6">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5">
         <f t="shared" ref="R2:R10" ca="1" si="4">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.29935215885439626</v>
+        <v>0.24198749028841471</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N3" s="6">
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8291945276672199</v>
-      </c>
-      <c r="O3" s="6">
+        <v>0.72620962123037236</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3062080171975763</v>
-      </c>
-      <c r="P3" s="6">
+        <v>0.61953681849588971</v>
+      </c>
+      <c r="P3" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59987063655624606</v>
-      </c>
-      <c r="Q3" s="3">
+        <v>0.50162673801622426</v>
+      </c>
+      <c r="Q3" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30010882912935222</v>
+        <v>0.21080709924213972</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95721589097124837</v>
-      </c>
-      <c r="O4" s="6">
+        <v>0.5267780099687227</v>
+      </c>
+      <c r="O4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2656341885380114</v>
-      </c>
-      <c r="P4" s="6">
+        <v>0.57270227323542511</v>
+      </c>
+      <c r="P4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39327777493743005</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>0.58944179214006187</v>
+      </c>
+      <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59656176063565591</v>
+        <v>0.24872246773013626</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59694991930586183</v>
-      </c>
-      <c r="O5" s="6">
+        <v>0.68687325000921162</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0514153290664616</v>
-      </c>
-      <c r="P5" s="6">
+        <v>1.0903220772239912</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41595891165278581</v>
-      </c>
-      <c r="Q5" s="3">
+        <v>0.5860541069981311</v>
+      </c>
+      <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R5" s="6">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54738009785817554</v>
+        <v>0.4362662183692414</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92911751352118355</v>
-      </c>
-      <c r="O6" s="6">
+        <v>0.54755990755876982</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1680925442805736</v>
-      </c>
-      <c r="P6" s="6">
+        <v>0.72760679118062754</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51954471149217762</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>0.3196900251613663</v>
+      </c>
+      <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R6" s="6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22860857049677744</v>
+        <v>0.5832005223354384</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8191518673970053</v>
-      </c>
-      <c r="O7" s="6">
+        <v>0.66728644246284707</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95632443285563085</v>
-      </c>
-      <c r="P7" s="6">
+        <v>1.4713192879043502</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44212305829527865</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>0.39135992434820682</v>
+      </c>
+      <c r="Q7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32865374309741729</v>
+        <v>0.20163759444349663</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86944885932616844</v>
-      </c>
-      <c r="O8" s="6">
+        <v>0.56888964749743964</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69730150024814097</v>
-      </c>
-      <c r="P8" s="6">
+        <v>1.274041719399321</v>
+      </c>
+      <c r="P8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48604889938703344</v>
-      </c>
-      <c r="Q8" s="3">
+        <v>0.41271737688822013</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.34432297906325404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81548236992164003</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0003208308605247</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32578708044584165</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.27339024521383209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8517955838473098</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56408478389487038</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37217819296821869</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2728175961594711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84498402097750858</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1929089828659836</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.45162189935830455</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="R9" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.34782577350833965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.63168383025558672</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3537697486582125</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.33571028858325924</v>
-      </c>
-      <c r="Q10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R10" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.38175928940747261</v>
+        <v>0.48417098390244223</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f ca="1">COUNT(N1:N10)</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="55">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1.2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.5</v>
       </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <f ca="1">$G$30+$F$30*N1+$E$30*O1+$D$30*P1+$C$30*Q1+$B$30*R1</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:I22" ca="1" si="5">$G$30+$F$30*N1+$E$30*O1+$D$30*P1+$C$30*Q1+$B$30*R1</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <f ca="1">H13-I13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f ca="1">J13^2</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0.6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.2</v>
       </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <f ca="1">$G$30+$F$30*N2+$E$30*O2+$D$30*P2+$C$30*Q2+$B$30*R2</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" ref="J14:J22" ca="1" si="5">H14-I14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" ref="K14:K22" ca="1" si="6">J14^2</f>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" ref="J14:J22" ca="1" si="6">H14-I14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" ref="K14:K22" ca="1" si="7">J14^2</f>
         <v>0</v>
       </c>
       <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="40" t="s">
+      <c r="O14" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q14" s="40" t="s">
+      <c r="Q14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="40" t="s">
+      <c r="S14" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>0.4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0.3</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <f ca="1">$G$30+$F$30*N3+$E$30*O3+$D$30*P3+$C$30*Q3+$B$30*R3</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K15" s="6">
+      <c r="J15" s="5">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="N15" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="41">
+      <c r="K15" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="40">
         <f ca="1">CORREL(N1:N10,N1:N10)^2</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
     </row>
     <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>1.3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>0.3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.4</v>
       </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <f ca="1">$G$30+$F$30*N4+$E$30*O4+$D$30*P4+$C$30*Q4+$B$30*R4</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="J16" s="5">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="K16" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="40">
         <f ca="1">CORREL(N1:N10,O1:O10)^2</f>
-        <v>2.9864040073445883E-3</v>
-      </c>
-      <c r="P16" s="41">
+        <v>2.9730690423408083E-2</v>
+      </c>
+      <c r="P16" s="40">
         <f ca="1">CORREL(O1:O10,O1:O10)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
     </row>
     <row r="17" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.7</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0.7</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0.4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0.6</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <f ca="1">$G$30+$F$30*N5+$E$30*O5+$D$30*P5+$C$30*Q5+$B$30*R5</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K17" s="6">
+      <c r="J17" s="5">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="N17" s="40" t="s">
+      <c r="K17" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="40">
         <f ca="1">CORREL(N1:N10,P1:P10)^2</f>
-        <v>0.11144448467311069</v>
-      </c>
-      <c r="P17" s="41">
+        <v>1.1622486981813842E-2</v>
+      </c>
+      <c r="P17" s="40">
         <f ca="1">CORREL(O1:O10,P1:P10)^2</f>
-        <v>3.0307781143040433E-4</v>
-      </c>
-      <c r="Q17" s="41">
+        <v>2.9808108322991012E-2</v>
+      </c>
+      <c r="Q17" s="40">
         <f ca="1" xml:space="preserve"> CORREL(P1:P10,P1:P10)^2</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
     </row>
     <row r="18" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.6</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.9</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>0.3</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <f ca="1">$G$30+$F$30*N6+$E$30*O6+$D$30*P6+$C$30*Q6+$B$30*R6</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K18" s="6">
+      <c r="J18" s="5">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="K18" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="40">
         <f ca="1">CORREL(N1:N10,Q1:Q10)^2</f>
-        <v>0.43295139050726889</v>
-      </c>
-      <c r="P18" s="41">
+        <v>2.9287259228873812E-2</v>
+      </c>
+      <c r="P18" s="40">
         <f ca="1">CORREL(O1:O10,Q1:Q10)^2</f>
-        <v>7.6543036575924248E-2</v>
-      </c>
-      <c r="Q18" s="41">
+        <v>1.391050750966926E-6</v>
+      </c>
+      <c r="Q18" s="40">
         <f ca="1">CORREL(P1:P10,Q1:Q10)^2</f>
-        <v>8.0978145357789494E-2</v>
-      </c>
-      <c r="R18" s="41">
+        <v>4.4352671956772014E-6</v>
+      </c>
+      <c r="R18" s="40">
         <f ca="1" xml:space="preserve"> CORREL(Q1:Q10,Q1:Q10)^2</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="S18" s="41"/>
+      <c r="S18" s="40"/>
     </row>
     <row r="19" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>7</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1.4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0.5</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0.4</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <f ca="1">$G$30+$F$30*N7+$E$30*O7+$D$30*P7+$C$30*Q7+$B$30*R7</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K19" s="6">
+      <c r="J19" s="5">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="N19" s="40" t="s">
+      <c r="K19" s="5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="40">
         <f ca="1">CORREL(N1:N10,R1:R10)^2</f>
-        <v>1.2559927896324034E-2</v>
-      </c>
-      <c r="P19" s="41">
+        <v>3.8130881474139683E-3</v>
+      </c>
+      <c r="P19" s="40">
         <f ca="1">CORREL(O1:O10,R1:R10)^2</f>
-        <v>6.7344291829722208E-2</v>
-      </c>
-      <c r="Q19" s="41">
+        <v>8.1140044057007199E-2</v>
+      </c>
+      <c r="Q19" s="40">
         <f ca="1">CORREL(P1:P10,R1:R10)^2</f>
-        <v>0.23245729483252783</v>
-      </c>
-      <c r="R19" s="41">
+        <v>1.9198322536333894E-2</v>
+      </c>
+      <c r="R19" s="40">
         <f ca="1">CORREL(Q1:Q10,R1:R10)^2</f>
-        <v>5.1996663113473153E-2</v>
-      </c>
-      <c r="S19" s="41">
+        <v>0.39412913447847769</v>
+      </c>
+      <c r="S19" s="40">
         <f ca="1">CORREL(R1:R10,R1:R10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.9</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>0.5</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>0.4</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <f ca="1">$G$30+$F$30*N8+$E$30*O8+$D$30*P8+$C$30*Q8+$B$30*R8</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="6">
+      <c r="J20" s="5">
         <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>9</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>0.8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>0.4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>0.6</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <f ca="1">$G$30+$F$30*N9+$E$30*O9+$D$30*P9+$C$30*Q9+$B$30*R9</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="J21" s="5">
         <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>10</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.7</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.8</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0.5</v>
       </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <f ca="1">$G$30+$F$30*N10+$E$30*O10+$D$30*P10+$C$30*Q10+$B$30*R10</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K22" s="6">
+      <c r="J22" s="5">
         <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="14" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <f ca="1">SUM(J13:J22)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <f ca="1">SUMSQ(J13:J22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="K24" s="17">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="K24" s="16">
         <f ca="1">SUM(J13:J22)/C33</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <f ca="1">SQRT(K24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20" t="s">
+      <c r="F29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="40" t="s">
+      <c r="J29" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="40" t="s">
+      <c r="L29" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="40" t="s">
+      <c r="N29" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="22" cm="1">
+      <c r="B30" s="21" cm="1">
         <f t="array" aca="1" ref="B30:G34" ca="1">LINEST(_Y_mes,_Mat_exp,1,1)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="41">
+      <c r="I30" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="40">
         <f>CORREL(C13:C22,C13:C22)^2</f>
         <v>1</v>
       </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="26">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="25">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="40">
         <f>CORREL(C13:C22,D13:D22)^2</f>
         <v>0.18402571969140166</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="40">
         <f>CORREL(D13:D22,D13:D22)</f>
         <v>1</v>
       </c>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="37">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="D32" s="30" t="e">
+      <c r="D32" s="29" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E32" s="31" t="e">
+      <c r="E32" s="30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F32" s="31" t="e">
+      <c r="F32" s="30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G32" s="32" t="e">
+      <c r="G32" s="31" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="41">
+      <c r="J32" s="40">
         <f>CORREL(C13:C22,E13:E22)^2</f>
         <v>1.1052777010223773E-3</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="40">
         <f>CORREL(D13:D22,E13:E22)^2</f>
         <v>2.7797475535385113E-2</v>
       </c>
-      <c r="L32" s="41" cm="1">
+      <c r="L32" s="40" cm="1">
         <f t="array" ref="L32" xml:space="preserve"> CORREL(E13:E22,E13:E22^2)</f>
         <v>0.99705933610227782</v>
       </c>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
     </row>
     <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="e">
+      <c r="B33" s="28" t="e">
         <f ca="1"/>
         <v>#NUM!</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="38">
         <f ca="1"/>
         <v>4</v>
       </c>
-      <c r="D33" s="30" t="e">
+      <c r="D33" s="29" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E33" s="31" t="e">
+      <c r="E33" s="30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F33" s="31" t="e">
+      <c r="F33" s="30" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="32" t="e">
+      <c r="G33" s="31" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="40">
         <f>CORREL(C13:C22,F13:F22)^2</f>
         <v>7.9315120231650566E-3</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="40">
         <f>CORREL(D13:D22,F13:F22)^2</f>
         <v>2.6677990196531001E-3</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="40">
         <f>CORREL(E13:E22,F13:F22)^2</f>
         <v>4.8413125336202326E-3</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="40">
         <f xml:space="preserve"> CORREL(F13:F22,F13:F22)^2</f>
         <v>1</v>
       </c>
-      <c r="N33" s="41"/>
+      <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="33">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="D34" s="34" t="e">
+      <c r="D34" s="33" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E34" s="34" t="e">
+      <c r="E34" s="33" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="F34" s="34" t="e">
+      <c r="F34" s="33" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="G34" s="35" t="e">
+      <c r="G34" s="34" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="40">
         <f>CORREL(C13:C22,G13:G22)^2</f>
         <v>2.8057049333645194E-3</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="40">
         <f>CORREL(D13:D22,G13:G22)^2</f>
         <v>1.9600784031361209E-3</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="40">
         <f>CORREL(E13:E22,G13:G22)^2</f>
         <v>9.3240093240093084E-3</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="40">
         <f>CORREL(F13:F22,G13:G22)^2</f>
         <v>0.1275982400242755</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="40">
         <f>CORREL(G13:G22,G13:G22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="52" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="51" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5366,227 +5389,227 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="42"/>
-    <col min="2" max="2" width="6.6640625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="42" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="42"/>
+    <col min="1" max="1" width="11.5546875" style="41"/>
+    <col min="2" max="2" width="6.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="44">
+      <c r="D1" s="43">
         <f ca="1">AVERAGE(D4:D13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <f ca="1">'Tri '!C32</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="47">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <f ca="1">'Tri '!J13</f>
         <v>0</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <f>(B4-0.375)/($B$13+0.25)</f>
         <v>6.097560975609756E-2</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="48">
         <f>NORMSINV(E4)</f>
         <v>-1.54663527139923</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="48">
         <f ca="1">F4*$D$2+$D$1</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="47">
+      <c r="B5" s="46">
         <v>2</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49">
+      <c r="D5" s="47"/>
+      <c r="E5" s="48">
         <f t="shared" ref="E5:E13" si="0">(B5-0.375)/($B$13+0.25)</f>
         <v>0.15853658536585366</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="48">
         <f t="shared" ref="F5:F13" si="1">NORMSINV(E5)</f>
         <v>-1.0004905456193149</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="48">
         <f t="shared" ref="G5:G13" ca="1" si="2">F5*$D$2+$D$1</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="47">
+      <c r="B6" s="46">
         <v>3</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49">
+      <c r="D6" s="47"/>
+      <c r="E6" s="48">
         <f t="shared" si="0"/>
         <v>0.25609756097560976</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <f t="shared" si="1"/>
         <v>-0.65542350523442661</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="47">
+      <c r="B7" s="46">
         <v>4</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49">
+      <c r="D7" s="47"/>
+      <c r="E7" s="48">
         <f t="shared" si="0"/>
         <v>0.35365853658536583</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <f t="shared" si="1"/>
         <v>-0.37546177023551847</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>5</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49">
+      <c r="D8" s="47"/>
+      <c r="E8" s="48">
         <f t="shared" si="0"/>
         <v>0.45121951219512196</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <f t="shared" si="1"/>
         <v>-0.12258084388880242</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>6</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49">
+      <c r="D9" s="47"/>
+      <c r="E9" s="48">
         <f t="shared" si="0"/>
         <v>0.54878048780487809</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <f t="shared" si="1"/>
         <v>0.12258084388880255</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>7</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49">
+      <c r="D10" s="47"/>
+      <c r="E10" s="48">
         <f t="shared" si="0"/>
         <v>0.64634146341463417</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <f t="shared" si="1"/>
         <v>0.37546177023551847</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>8</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49">
+      <c r="D11" s="47"/>
+      <c r="E11" s="48">
         <f t="shared" si="0"/>
         <v>0.74390243902439024</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <f t="shared" si="1"/>
         <v>0.65542350523442661</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>9</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49">
+      <c r="D12" s="47"/>
+      <c r="E12" s="48">
         <f t="shared" si="0"/>
         <v>0.84146341463414631</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <f t="shared" si="1"/>
         <v>1.0004905456193149</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49">
+      <c r="D13" s="47"/>
+      <c r="E13" s="48">
         <f t="shared" si="0"/>
         <v>0.93902439024390238</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="48">
         <f t="shared" si="1"/>
         <v>1.5466352713992295</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>

--- a/Banc de test/Plan d'expérience.xlsx
+++ b/Banc de test/Plan d'expérience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonor\Documents\INSA\INSA GP 4A\S2\UF du capteur au banc de test\2020-2021_GAICH_STEPHEN_Capteur_Graphite\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D8A245-F9C1-4E4D-A8BC-D2F450D6B455}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3A5405-325F-4738-9EAE-8D813DD25D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8B506EDC-613C-4B3F-AFCF-AFEE6162402D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tri " sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>* Le nombre de couche de graphite mis =&gt; pas mesurable</t>
   </si>
   <si>
-    <t>*?</t>
+    <t>* Le nombre de fibres papier qui sont rompus lors d’un essai</t>
   </si>
 </sst>
 </file>
@@ -752,11 +752,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4223,47 +4223,49 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="12" width="11.5546875" style="2"/>
+    <col min="13" max="13" width="14.33203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N1" s="5">
         <f ca="1">0.5+RAND()*(1-0.5)</f>
-        <v>0.59606160581705603</v>
+        <v>0.85715636406849782</v>
       </c>
       <c r="O1" s="5">
         <f ca="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>0.63980509774122074</v>
+        <v>0.64332779901033088</v>
       </c>
       <c r="P1" s="5">
         <f ca="1">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.32603879600098479</v>
+        <v>0.55705048956804393</v>
       </c>
       <c r="Q1" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R1" s="5">
         <f ca="1">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.26620271133772644</v>
+        <v>0.48228333334329793</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4272,23 +4274,23 @@
       </c>
       <c r="N2" s="5">
         <f t="shared" ref="N2:N10" ca="1" si="0">0.5+RAND()*(1-0.5)</f>
-        <v>0.56493148934440063</v>
+        <v>0.80865169523660885</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" ref="O2:O10" ca="1" si="1">0.5+RAND()*(1.5-0.5)</f>
-        <v>1.4782715428040758</v>
+        <v>1.1539992616998456</v>
       </c>
       <c r="P2" s="5">
         <f t="shared" ref="P2:P10" ca="1" si="2">0.3+RAND()*(0.6-0.3)</f>
-        <v>0.34359666221024232</v>
+        <v>0.54025585093468842</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ref="Q2:Q10" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" ref="R2:R10" ca="1" si="4">0.2+RAND()*(0.6-0.2)</f>
-        <v>0.24198749028841471</v>
+        <v>0.53136982942387712</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4297,23 +4299,23 @@
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72620962123037236</v>
+        <v>0.63143407016587805</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61953681849588971</v>
+        <v>0.64934626664082973</v>
       </c>
       <c r="P3" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50162673801622426</v>
+        <v>0.45212624172567806</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R3" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21080709924213972</v>
+        <v>0.49615138190763897</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4325,23 +4327,23 @@
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5267780099687227</v>
+        <v>0.78340907571745755</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57270227323542511</v>
+        <v>0.82745565971272839</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58944179214006187</v>
+        <v>0.4756074108087685</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24872246773013626</v>
+        <v>0.45738796138448212</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4353,23 +4355,23 @@
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68687325000921162</v>
+        <v>0.96312218372162328</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0903220772239912</v>
+        <v>1.1437171538101176</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5860541069981311</v>
+        <v>0.53507045197275849</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4362662183692414</v>
+        <v>0.26946297946137016</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4378,23 +4380,23 @@
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54755990755876982</v>
+        <v>0.92781763309886389</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72760679118062754</v>
+        <v>1.4503694428490896</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3196900251613663</v>
+        <v>0.37385320186085202</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5832005223354384</v>
+        <v>0.58447122107289051</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4403,15 +4405,15 @@
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66728644246284707</v>
+        <v>0.66991579758233621</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4713192879043502</v>
+        <v>0.77787351814074179</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39135992434820682</v>
+        <v>0.52310363987251796</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -4419,7 +4421,7 @@
       </c>
       <c r="R7" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20163759444349663</v>
+        <v>0.55464846148721803</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4428,15 +4430,15 @@
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56888964749743964</v>
+        <v>0.57636859534439655</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.274041719399321</v>
+        <v>0.74960971345097038</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41271737688822013</v>
+        <v>0.47323065903520689</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -4444,51 +4446,51 @@
       </c>
       <c r="R8" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34432297906325404</v>
+        <v>0.28654807380167024</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81548236992164003</v>
+        <v>0.85313451985769095</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0003208308605247</v>
+        <v>1.0535476842502212</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32578708044584165</v>
+        <v>0.44337955100072646</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27339024521383209</v>
+        <v>0.20051890418689552</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8517955838473098</v>
+        <v>0.83552272604650502</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56408478389487038</v>
+        <v>0.86914347985460561</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37217819296821869</v>
+        <v>0.40848548176423649</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48417098390244223</v>
+        <v>0.24099571368274672</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4536,7 +4538,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+      <c r="A13" s="54">
         <v>1</v>
       </c>
       <c r="B13" s="6">
@@ -4720,11 +4722,11 @@
       </c>
       <c r="O16" s="40">
         <f ca="1">CORREL(N1:N10,O1:O10)^2</f>
-        <v>2.9730690423408083E-2</v>
+        <v>0.45274378230236223</v>
       </c>
       <c r="P16" s="40">
         <f ca="1">CORREL(O1:O10,O1:O10)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
@@ -4772,15 +4774,15 @@
       </c>
       <c r="O17" s="40">
         <f ca="1">CORREL(N1:N10,P1:P10)^2</f>
-        <v>1.1622486981813842E-2</v>
+        <v>2.7578711310424931E-3</v>
       </c>
       <c r="P17" s="40">
         <f ca="1">CORREL(O1:O10,P1:P10)^2</f>
-        <v>2.9808108322991012E-2</v>
+        <v>0.1200387686956819</v>
       </c>
       <c r="Q17" s="40">
         <f ca="1" xml:space="preserve"> CORREL(P1:P10,P1:P10)^2</f>
-        <v>0.99999999999999956</v>
+        <v>1</v>
       </c>
       <c r="R17" s="40"/>
       <c r="S17" s="40"/>
@@ -4827,19 +4829,19 @@
       </c>
       <c r="O18" s="40">
         <f ca="1">CORREL(N1:N10,Q1:Q10)^2</f>
-        <v>2.9287259228873812E-2</v>
+        <v>2.6889308599957398E-6</v>
       </c>
       <c r="P18" s="40">
         <f ca="1">CORREL(O1:O10,Q1:Q10)^2</f>
-        <v>1.391050750966926E-6</v>
+        <v>0.21156482409307326</v>
       </c>
       <c r="Q18" s="40">
         <f ca="1">CORREL(P1:P10,Q1:Q10)^2</f>
-        <v>4.4352671956772014E-6</v>
+        <v>7.1336021480790296E-2</v>
       </c>
       <c r="R18" s="40">
         <f ca="1" xml:space="preserve"> CORREL(Q1:Q10,Q1:Q10)^2</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="S18" s="40"/>
     </row>
@@ -4885,19 +4887,19 @@
       </c>
       <c r="O19" s="40">
         <f ca="1">CORREL(N1:N10,R1:R10)^2</f>
-        <v>3.8130881474139683E-3</v>
+        <v>1.3283082816114277E-2</v>
       </c>
       <c r="P19" s="40">
         <f ca="1">CORREL(O1:O10,R1:R10)^2</f>
-        <v>8.1140044057007199E-2</v>
+        <v>4.5198331739065706E-3</v>
       </c>
       <c r="Q19" s="40">
         <f ca="1">CORREL(P1:P10,R1:R10)^2</f>
-        <v>1.9198322536333894E-2</v>
+        <v>1.8935073957158165E-2</v>
       </c>
       <c r="R19" s="40">
         <f ca="1">CORREL(Q1:Q10,R1:R10)^2</f>
-        <v>0.39412913447847769</v>
+        <v>9.2575574247489273E-2</v>
       </c>
       <c r="S19" s="40">
         <f ca="1">CORREL(R1:R10,R1:R10)</f>
